--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lama2-Itga7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lama2-Itga7.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.503911</v>
+        <v>2.430374</v>
       </c>
       <c r="H2">
-        <v>4.511733</v>
+        <v>7.291122000000001</v>
       </c>
       <c r="I2">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915244</v>
       </c>
       <c r="J2">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915246</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.876638333333333</v>
+        <v>1.533541666666667</v>
       </c>
       <c r="N2">
-        <v>5.629915</v>
+        <v>4.600625</v>
       </c>
       <c r="O2">
-        <v>0.02573404359390861</v>
+        <v>0.01998214594581092</v>
       </c>
       <c r="P2">
-        <v>0.02573404359390861</v>
+        <v>0.01998214594581093</v>
       </c>
       <c r="Q2">
-        <v>2.822297032521667</v>
+        <v>3.727079794583333</v>
       </c>
       <c r="R2">
-        <v>25.400673292695</v>
+        <v>33.54371815125</v>
       </c>
       <c r="S2">
-        <v>0.0001622986528992148</v>
+        <v>0.0001842904830491103</v>
       </c>
       <c r="T2">
-        <v>0.0001622986528992148</v>
+        <v>0.0001842904830491104</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.503911</v>
+        <v>2.430374</v>
       </c>
       <c r="H3">
-        <v>4.511733</v>
+        <v>7.291122000000001</v>
       </c>
       <c r="I3">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915244</v>
       </c>
       <c r="J3">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915246</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.948587333333333</v>
+        <v>3.948587333333334</v>
       </c>
       <c r="N3">
         <v>11.845762</v>
       </c>
       <c r="O3">
-        <v>0.05414635135895765</v>
+        <v>0.05145034536032411</v>
       </c>
       <c r="P3">
-        <v>0.05414635135895765</v>
+        <v>0.05145034536032412</v>
       </c>
       <c r="Q3">
-        <v>5.938323925060667</v>
+        <v>9.596543991662667</v>
       </c>
       <c r="R3">
-        <v>53.444915325546</v>
+        <v>86.36889592496401</v>
       </c>
       <c r="S3">
-        <v>0.0003414884976353476</v>
+        <v>0.000474514049952951</v>
       </c>
       <c r="T3">
-        <v>0.0003414884976353476</v>
+        <v>0.0004745140499529512</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.503911</v>
+        <v>2.430374</v>
       </c>
       <c r="H4">
-        <v>4.511733</v>
+        <v>7.291122000000001</v>
       </c>
       <c r="I4">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915244</v>
       </c>
       <c r="J4">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915246</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>66.84467933333333</v>
+        <v>70.69501233333334</v>
       </c>
       <c r="N4">
-        <v>200.534038</v>
+        <v>212.085037</v>
       </c>
       <c r="O4">
-        <v>0.9166304777167198</v>
+        <v>0.921160529766436</v>
       </c>
       <c r="P4">
-        <v>0.9166304777167198</v>
+        <v>0.9211605297664361</v>
       </c>
       <c r="Q4">
-        <v>100.5284485408727</v>
+        <v>171.8153199046127</v>
       </c>
       <c r="R4">
-        <v>904.7560368678542</v>
+        <v>1546.337879141514</v>
       </c>
       <c r="S4">
-        <v>0.005780976129806568</v>
+        <v>0.008495640030695488</v>
       </c>
       <c r="T4">
-        <v>0.005780976129806568</v>
+        <v>0.008495640030695492</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.503911</v>
+        <v>2.430374</v>
       </c>
       <c r="H5">
-        <v>4.511733</v>
+        <v>7.291122000000001</v>
       </c>
       <c r="I5">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915244</v>
       </c>
       <c r="J5">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915246</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2544423333333333</v>
+        <v>0.568453</v>
       </c>
       <c r="N5">
-        <v>0.763327</v>
+        <v>1.705359</v>
       </c>
       <c r="O5">
-        <v>0.003489127330413955</v>
+        <v>0.007406978927428811</v>
       </c>
       <c r="P5">
-        <v>0.003489127330413955</v>
+        <v>0.007406978927428812</v>
       </c>
       <c r="Q5">
-        <v>0.3826586239656667</v>
+        <v>1.381553391422</v>
       </c>
       <c r="R5">
-        <v>3.443927615691</v>
+        <v>12.433980522798</v>
       </c>
       <c r="S5">
-        <v>2.200511798519141E-05</v>
+        <v>6.831276921769275E-05</v>
       </c>
       <c r="T5">
-        <v>2.200511798519141E-05</v>
+        <v>6.831276921769278E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>433.257233</v>
       </c>
       <c r="I6">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605952</v>
       </c>
       <c r="J6">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605954</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.876638333333333</v>
+        <v>1.533541666666667</v>
       </c>
       <c r="N6">
-        <v>5.629915</v>
+        <v>4.600625</v>
       </c>
       <c r="O6">
-        <v>0.02573404359390861</v>
+        <v>0.01998214594581092</v>
       </c>
       <c r="P6">
-        <v>0.02573404359390861</v>
+        <v>0.01998214594581093</v>
       </c>
       <c r="Q6">
-        <v>271.0223772139106</v>
+        <v>221.4726730634027</v>
       </c>
       <c r="R6">
-        <v>2439.201394925195</v>
+        <v>1993.254057570625</v>
       </c>
       <c r="S6">
-        <v>0.01558537822932811</v>
+        <v>0.01095101477579047</v>
       </c>
       <c r="T6">
-        <v>0.01558537822932811</v>
+        <v>0.01095101477579047</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>433.257233</v>
       </c>
       <c r="I7">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605952</v>
       </c>
       <c r="J7">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605954</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.948587333333333</v>
+        <v>3.948587333333334</v>
       </c>
       <c r="N7">
         <v>11.845762</v>
       </c>
       <c r="O7">
-        <v>0.05414635135895765</v>
+        <v>0.05145034536032411</v>
       </c>
       <c r="P7">
-        <v>0.05414635135895765</v>
+        <v>0.05145034536032412</v>
       </c>
       <c r="Q7">
         <v>570.2513407662829</v>
@@ -883,10 +883,10 @@
         <v>5132.262066896546</v>
       </c>
       <c r="S7">
-        <v>0.03279280081219738</v>
+        <v>0.02819684601385621</v>
       </c>
       <c r="T7">
-        <v>0.03279280081219738</v>
+        <v>0.02819684601385622</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>433.257233</v>
       </c>
       <c r="I8">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605952</v>
       </c>
       <c r="J8">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605954</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>66.84467933333333</v>
+        <v>70.69501233333334</v>
       </c>
       <c r="N8">
-        <v>200.534038</v>
+        <v>212.085037</v>
       </c>
       <c r="O8">
-        <v>0.9166304777167198</v>
+        <v>0.921160529766436</v>
       </c>
       <c r="P8">
-        <v>0.9166304777167198</v>
+        <v>0.9211605297664361</v>
       </c>
       <c r="Q8">
-        <v>9653.646936244095</v>
+        <v>10209.70847681362</v>
       </c>
       <c r="R8">
-        <v>86882.82242619687</v>
+        <v>91887.37629132262</v>
       </c>
       <c r="S8">
-        <v>0.5551413884729088</v>
+        <v>0.5048327942205826</v>
       </c>
       <c r="T8">
-        <v>0.5551413884729088</v>
+        <v>0.5048327942205827</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>433.257233</v>
       </c>
       <c r="I9">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605952</v>
       </c>
       <c r="J9">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605954</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2544423333333333</v>
+        <v>0.568453</v>
       </c>
       <c r="N9">
-        <v>0.763327</v>
+        <v>1.705359</v>
       </c>
       <c r="O9">
-        <v>0.003489127330413955</v>
+        <v>0.007406978927428811</v>
       </c>
       <c r="P9">
-        <v>0.003489127330413955</v>
+        <v>0.007406978927428812</v>
       </c>
       <c r="Q9">
-        <v>36.74632709935456</v>
+        <v>82.09545795684966</v>
       </c>
       <c r="R9">
-        <v>330.716943894191</v>
+        <v>738.859121611647</v>
       </c>
       <c r="S9">
-        <v>0.002113129595679214</v>
+        <v>0.004059320550365929</v>
       </c>
       <c r="T9">
-        <v>0.002113129595679214</v>
+        <v>0.004059320550365931</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>92.49530699999998</v>
+        <v>116.470388</v>
       </c>
       <c r="H10">
-        <v>277.485921</v>
+        <v>349.411164</v>
       </c>
       <c r="I10">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="J10">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.876638333333333</v>
+        <v>1.533541666666667</v>
       </c>
       <c r="N10">
-        <v>5.629915</v>
+        <v>4.600625</v>
       </c>
       <c r="O10">
-        <v>0.02573404359390861</v>
+        <v>0.01998214594581092</v>
       </c>
       <c r="P10">
-        <v>0.02573404359390861</v>
+        <v>0.01998214594581093</v>
       </c>
       <c r="Q10">
-        <v>173.580238769635</v>
+        <v>178.6121929308333</v>
       </c>
       <c r="R10">
-        <v>1562.222148926715</v>
+        <v>1607.5097363775</v>
       </c>
       <c r="S10">
-        <v>0.009981883053983452</v>
+        <v>0.008831720576930669</v>
       </c>
       <c r="T10">
-        <v>0.009981883053983452</v>
+        <v>0.008831720576930671</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>92.49530699999998</v>
+        <v>116.470388</v>
       </c>
       <c r="H11">
-        <v>277.485921</v>
+        <v>349.411164</v>
       </c>
       <c r="I11">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="J11">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.948587333333333</v>
+        <v>3.948587333333334</v>
       </c>
       <c r="N11">
         <v>11.845762</v>
       </c>
       <c r="O11">
-        <v>0.05414635135895765</v>
+        <v>0.05145034536032411</v>
       </c>
       <c r="P11">
-        <v>0.05414635135895765</v>
+        <v>0.05145034536032412</v>
       </c>
       <c r="Q11">
-        <v>365.2257976129779</v>
+        <v>459.8934987652187</v>
       </c>
       <c r="R11">
-        <v>3287.032178516801</v>
+        <v>4139.041488886968</v>
       </c>
       <c r="S11">
-        <v>0.02100262809817219</v>
+        <v>0.02274005379808687</v>
       </c>
       <c r="T11">
-        <v>0.02100262809817219</v>
+        <v>0.02274005379808688</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>92.49530699999998</v>
+        <v>116.470388</v>
       </c>
       <c r="H12">
-        <v>277.485921</v>
+        <v>349.411164</v>
       </c>
       <c r="I12">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="J12">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>66.84467933333333</v>
+        <v>70.69501233333334</v>
       </c>
       <c r="N12">
-        <v>200.534038</v>
+        <v>212.085037</v>
       </c>
       <c r="O12">
-        <v>0.9166304777167198</v>
+        <v>0.921160529766436</v>
       </c>
       <c r="P12">
-        <v>0.9166304777167198</v>
+        <v>0.9211605297664361</v>
       </c>
       <c r="Q12">
-        <v>6182.819136253221</v>
+        <v>8233.875516128119</v>
       </c>
       <c r="R12">
-        <v>55645.372226279</v>
+        <v>74104.87964515307</v>
       </c>
       <c r="S12">
-        <v>0.3555484080415199</v>
+        <v>0.4071350708505915</v>
       </c>
       <c r="T12">
-        <v>0.3555484080415199</v>
+        <v>0.4071350708505916</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>92.49530699999998</v>
+        <v>116.470388</v>
       </c>
       <c r="H13">
-        <v>277.485921</v>
+        <v>349.411164</v>
       </c>
       <c r="I13">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="J13">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2544423333333333</v>
+        <v>0.568453</v>
       </c>
       <c r="N13">
-        <v>0.763327</v>
+        <v>1.705359</v>
       </c>
       <c r="O13">
-        <v>0.003489127330413955</v>
+        <v>0.007406978927428811</v>
       </c>
       <c r="P13">
-        <v>0.003489127330413955</v>
+        <v>0.007406978927428812</v>
       </c>
       <c r="Q13">
-        <v>23.53472173546299</v>
+        <v>66.20794146976399</v>
       </c>
       <c r="R13">
-        <v>211.812495619167</v>
+        <v>595.871473227876</v>
       </c>
       <c r="S13">
-        <v>0.001353384704022712</v>
+        <v>0.003273740887673721</v>
       </c>
       <c r="T13">
-        <v>0.001353384704022712</v>
+        <v>0.003273740887673721</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.041547</v>
+        <v>0.1994</v>
       </c>
       <c r="H14">
-        <v>0.124641</v>
+        <v>0.5982000000000001</v>
       </c>
       <c r="I14">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065188</v>
       </c>
       <c r="J14">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065189</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.876638333333333</v>
+        <v>1.533541666666667</v>
       </c>
       <c r="N14">
-        <v>5.629915</v>
+        <v>4.600625</v>
       </c>
       <c r="O14">
-        <v>0.02573404359390861</v>
+        <v>0.01998214594581092</v>
       </c>
       <c r="P14">
-        <v>0.02573404359390861</v>
+        <v>0.01998214594581093</v>
       </c>
       <c r="Q14">
-        <v>0.07796869283500001</v>
+        <v>0.3057882083333334</v>
       </c>
       <c r="R14">
-        <v>0.701718235515</v>
+        <v>2.752093875</v>
       </c>
       <c r="S14">
-        <v>4.483657697831637E-06</v>
+        <v>1.512011004067382E-05</v>
       </c>
       <c r="T14">
-        <v>4.483657697831637E-06</v>
+        <v>1.512011004067383E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.041547</v>
+        <v>0.1994</v>
       </c>
       <c r="H15">
-        <v>0.124641</v>
+        <v>0.5982000000000001</v>
       </c>
       <c r="I15">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065188</v>
       </c>
       <c r="J15">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065189</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.948587333333333</v>
+        <v>3.948587333333334</v>
       </c>
       <c r="N15">
         <v>11.845762</v>
       </c>
       <c r="O15">
-        <v>0.05414635135895765</v>
+        <v>0.05145034536032411</v>
       </c>
       <c r="P15">
-        <v>0.05414635135895765</v>
+        <v>0.05145034536032412</v>
       </c>
       <c r="Q15">
-        <v>0.164051957938</v>
+        <v>0.7873483142666668</v>
       </c>
       <c r="R15">
-        <v>1.476467621442</v>
+        <v>7.086134828400001</v>
       </c>
       <c r="S15">
-        <v>9.433950952719799E-06</v>
+        <v>3.893149842806846E-05</v>
       </c>
       <c r="T15">
-        <v>9.433950952719799E-06</v>
+        <v>3.893149842806847E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.041547</v>
+        <v>0.1994</v>
       </c>
       <c r="H16">
-        <v>0.124641</v>
+        <v>0.5982000000000001</v>
       </c>
       <c r="I16">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065188</v>
       </c>
       <c r="J16">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065189</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>66.84467933333333</v>
+        <v>70.69501233333334</v>
       </c>
       <c r="N16">
-        <v>200.534038</v>
+        <v>212.085037</v>
       </c>
       <c r="O16">
-        <v>0.9166304777167198</v>
+        <v>0.921160529766436</v>
       </c>
       <c r="P16">
-        <v>0.9166304777167198</v>
+        <v>0.9211605297664361</v>
       </c>
       <c r="Q16">
-        <v>2.777195892262</v>
+        <v>14.09658545926667</v>
       </c>
       <c r="R16">
-        <v>24.994763030358</v>
+        <v>126.8692691334</v>
       </c>
       <c r="S16">
-        <v>0.0001597050724843913</v>
+        <v>0.0006970246645663098</v>
       </c>
       <c r="T16">
-        <v>0.0001597050724843913</v>
+        <v>0.00069702466456631</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.041547</v>
+        <v>0.1994</v>
       </c>
       <c r="H17">
-        <v>0.124641</v>
+        <v>0.5982000000000001</v>
       </c>
       <c r="I17">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065188</v>
       </c>
       <c r="J17">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065189</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2544423333333333</v>
+        <v>0.568453</v>
       </c>
       <c r="N17">
-        <v>0.763327</v>
+        <v>1.705359</v>
       </c>
       <c r="O17">
-        <v>0.003489127330413955</v>
+        <v>0.007406978927428811</v>
       </c>
       <c r="P17">
-        <v>0.003489127330413955</v>
+        <v>0.007406978927428812</v>
       </c>
       <c r="Q17">
-        <v>0.010571315623</v>
+        <v>0.1133495282</v>
       </c>
       <c r="R17">
-        <v>0.095141840607</v>
+        <v>1.0201457538</v>
       </c>
       <c r="S17">
-        <v>6.07912726837391E-07</v>
+        <v>5.604720171466588E-06</v>
       </c>
       <c r="T17">
-        <v>6.07912726837391E-07</v>
+        <v>5.604720171466589E-06</v>
       </c>
     </row>
   </sheetData>
